--- a/基本設計/機能一覧表.xlsx
+++ b/基本設計/機能一覧表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A27EB0-1A55-48AF-984F-B184A382572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -57,26 +57,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>作成会社</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -88,10 +71,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SI</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -135,16 +114,6 @@
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初版作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -174,17 +143,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Rev 1.00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能分類</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -389,20 +347,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>株式会社xxxxxx様</t>
-    <rPh sb="10" eb="11">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -417,6 +361,10 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D.Iブログ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -686,9 +634,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -707,16 +655,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -735,29 +682,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -855,8 +795,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="165100"/>
-          <a:ext cx="1555750" cy="171450"/>
+          <a:off x="7330440" y="160020"/>
+          <a:ext cx="1536700" cy="166370"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -954,16 +894,25 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>2005/5/15</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1272,51 +1221,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="29" width="4.08984375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="4.08984375" style="17" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="16" customWidth="1"/>
+    <col min="7" max="32" width="4.109375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="9" customFormat="1" ht="13" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="23"/>
+    <row r="1" spans="1:176" s="9" customFormat="1" ht="13.05" customHeight="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="22"/>
       <c r="AG1" s="7"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
@@ -1462,781 +1412,760 @@
       <c r="FS1" s="8"/>
       <c r="FT1" s="8"/>
     </row>
-    <row r="2" spans="1:176" ht="13" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="27"/>
-    </row>
-    <row r="3" spans="1:176" ht="13" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="27"/>
-    </row>
-    <row r="4" spans="1:176" ht="13" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="27"/>
-    </row>
-    <row r="5" spans="1:176" ht="13" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="27"/>
-    </row>
-    <row r="6" spans="1:176" ht="13" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="27"/>
-    </row>
-    <row r="7" spans="1:176" ht="13" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="27"/>
-    </row>
-    <row r="8" spans="1:176" ht="13" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34" t="s">
-        <v>37</v>
+    <row r="2" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="25"/>
+    </row>
+    <row r="3" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="25"/>
+    </row>
+    <row r="4" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="25"/>
+    </row>
+    <row r="6" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="25"/>
+    </row>
+    <row r="7" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="25"/>
+    </row>
+    <row r="8" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32" t="s">
+        <v>31</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="43" t="s">
-        <v>38</v>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="43" t="s">
+        <v>33</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="27"/>
-    </row>
-    <row r="9" spans="1:176" ht="13" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="27"/>
-    </row>
-    <row r="10" spans="1:176" ht="13" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="27"/>
-    </row>
-    <row r="11" spans="1:176" ht="13" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="27"/>
-    </row>
-    <row r="12" spans="1:176" ht="13" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="27"/>
-    </row>
-    <row r="13" spans="1:176" ht="13" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="27"/>
-    </row>
-    <row r="14" spans="1:176" ht="13" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="27"/>
-    </row>
-    <row r="15" spans="1:176" ht="13" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="27"/>
-    </row>
-    <row r="16" spans="1:176" ht="13" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="27"/>
-    </row>
-    <row r="17" spans="1:32" ht="13" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="46" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="25"/>
+    </row>
+    <row r="10" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="25"/>
+    </row>
+    <row r="11" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="25"/>
+    </row>
+    <row r="12" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="25"/>
+    </row>
+    <row r="13" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="25"/>
+    </row>
+    <row r="14" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="25"/>
+    </row>
+    <row r="15" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="25"/>
+    </row>
+    <row r="16" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="25"/>
+    </row>
+    <row r="17" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="27"/>
-    </row>
-    <row r="18" spans="1:32" ht="13" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="27"/>
-    </row>
-    <row r="19" spans="1:32" ht="13" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="27"/>
-    </row>
-    <row r="20" spans="1:32" ht="13" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="27"/>
-    </row>
-    <row r="21" spans="1:32" ht="13" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="27"/>
-    </row>
-    <row r="22" spans="1:32" ht="13" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="27"/>
-    </row>
-    <row r="23" spans="1:32" ht="13" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28" t="s">
-        <v>7</v>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="25"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="25"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="25"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="25"/>
+    </row>
+    <row r="21" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="25"/>
+    </row>
+    <row r="22" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="25"/>
+    </row>
+    <row r="23" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26" t="s">
+        <v>4</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="27"/>
-    </row>
-    <row r="24" spans="1:32" ht="13" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="27"/>
-    </row>
-    <row r="25" spans="1:32" ht="13" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="25"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="25"/>
+    </row>
+    <row r="25" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2256,32 +2185,26 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="29" t="s">
-        <v>16</v>
+      <c r="AC25" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="27"/>
-    </row>
-    <row r="26" spans="1:32" ht="13" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="25"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="48">
-        <v>38487</v>
-      </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2300,17 +2223,13 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="27"/>
-    </row>
-    <row r="27" spans="1:32" ht="13" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="25"/>
+    </row>
+    <row r="27" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A27" s="23"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2338,13 +2257,13 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="29"/>
+      <c r="AC27" s="27"/>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="27"/>
-    </row>
-    <row r="28" spans="1:32" ht="13" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="25"/>
+    </row>
+    <row r="28" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A28" s="23"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2372,13 +2291,13 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="29"/>
+      <c r="AC28" s="27"/>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="27"/>
-    </row>
-    <row r="29" spans="1:32" ht="13" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="25"/>
+    </row>
+    <row r="29" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A29" s="23"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2406,13 +2325,13 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
       <c r="AB29" s="13"/>
-      <c r="AC29" s="29"/>
+      <c r="AC29" s="27"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="27"/>
-    </row>
-    <row r="30" spans="1:32" ht="13" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="25"/>
+    </row>
+    <row r="30" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A30" s="23"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2440,13 +2359,13 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="29"/>
+      <c r="AC30" s="27"/>
       <c r="AD30" s="13"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="27"/>
-    </row>
-    <row r="31" spans="1:32" ht="13" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="25"/>
+    </row>
+    <row r="31" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A31" s="23"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2474,13 +2393,13 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="29"/>
+      <c r="AC31" s="27"/>
       <c r="AD31" s="13"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="27"/>
-    </row>
-    <row r="32" spans="1:32" ht="13" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="25"/>
+    </row>
+    <row r="32" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A32" s="23"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2508,13 +2427,13 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="13"/>
-      <c r="AC32" s="29"/>
+      <c r="AC32" s="27"/>
       <c r="AD32" s="13"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="27"/>
-    </row>
-    <row r="33" spans="1:32" ht="13" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="25"/>
+    </row>
+    <row r="33" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A33" s="23"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2542,13 +2461,13 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="13"/>
-      <c r="AC33" s="29"/>
+      <c r="AC33" s="27"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="27"/>
-    </row>
-    <row r="34" spans="1:32" ht="13" customHeight="1">
-      <c r="A34" s="24"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="25"/>
+    </row>
+    <row r="34" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A34" s="23"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2576,13 +2495,13 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="29"/>
+      <c r="AC34" s="27"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="27"/>
-    </row>
-    <row r="35" spans="1:32" ht="13" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="25"/>
+    </row>
+    <row r="35" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2610,13 +2529,13 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="13"/>
-      <c r="AC35" s="29"/>
+      <c r="AC35" s="27"/>
       <c r="AD35" s="13"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="27"/>
-    </row>
-    <row r="36" spans="1:32" ht="13" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="25"/>
+    </row>
+    <row r="36" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2644,13 +2563,13 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="13"/>
-      <c r="AC36" s="29"/>
+      <c r="AC36" s="27"/>
       <c r="AD36" s="13"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="27"/>
-    </row>
-    <row r="37" spans="1:32" ht="13" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="25"/>
+    </row>
+    <row r="37" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A37" s="23"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2678,13 +2597,13 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="13"/>
-      <c r="AC37" s="29"/>
+      <c r="AC37" s="27"/>
       <c r="AD37" s="13"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="27"/>
-    </row>
-    <row r="38" spans="1:32" ht="13" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="25"/>
+    </row>
+    <row r="38" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A38" s="23"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2712,13 +2631,13 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="13"/>
-      <c r="AC38" s="29"/>
+      <c r="AC38" s="27"/>
       <c r="AD38" s="13"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="27"/>
-    </row>
-    <row r="39" spans="1:32" ht="13" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="25"/>
+    </row>
+    <row r="39" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2746,13 +2665,13 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="13"/>
-      <c r="AC39" s="29"/>
+      <c r="AC39" s="27"/>
       <c r="AD39" s="13"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="27"/>
-    </row>
-    <row r="40" spans="1:32" ht="13" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="25"/>
+    </row>
+    <row r="40" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A40" s="23"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2780,13 +2699,13 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="13"/>
-      <c r="AC40" s="29"/>
+      <c r="AC40" s="27"/>
       <c r="AD40" s="13"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="27"/>
-    </row>
-    <row r="41" spans="1:32" ht="13" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="25"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A41" s="23"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2814,13 +2733,13 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="13"/>
-      <c r="AC41" s="29"/>
+      <c r="AC41" s="27"/>
       <c r="AD41" s="13"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="27"/>
-    </row>
-    <row r="42" spans="1:32" ht="13" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="25"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A42" s="23"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2848,49 +2767,48 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="13"/>
-      <c r="AC42" s="29"/>
+      <c r="AC42" s="27"/>
       <c r="AD42" s="13"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="27"/>
-    </row>
-    <row r="43" spans="1:32" ht="13" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="33"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="25"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F9:Q10"/>
@@ -2911,51 +2829,50 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="26" width="4.08984375" style="1" customWidth="1"/>
-    <col min="27" max="29" width="4.08984375" style="17" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="16" customWidth="1"/>
+    <col min="7" max="29" width="4.109375" style="1" customWidth="1"/>
     <col min="30" max="33" width="4" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2985,18 +2902,16 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="59"/>
+      <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3022,53 +2937,49 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="60" t="s">
-        <v>6</v>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>9</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="61"/>
-    </row>
-    <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="62" t="s">
-        <v>19</v>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="54" t="s">
+        <v>11</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="62" t="s">
-        <v>15</v>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="54" t="s">
+        <v>3</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="56"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3216,20 +3127,20 @@
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3237,7 +3148,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="13"/>
       <c r="P5" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3264,7 +3175,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3272,7 +3183,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3299,7 +3210,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -3332,7 +3243,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -3365,7 +3276,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3373,7 +3284,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
       <c r="P9" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -3396,13 +3307,13 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3410,7 +3321,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
       <c r="P10" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -3437,7 +3348,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3445,7 +3356,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="13"/>
       <c r="P11" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3472,7 +3383,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3505,7 +3416,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3538,7 +3449,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3701,7 +3612,6 @@
       <c r="N19" s="11"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="11"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="11"/>

--- a/基本設計/機能一覧表.xlsx
+++ b/基本設計/機能一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DAB303-E7B3-4647-BCAD-9F090A13F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB06B45-6EDF-4127-9ADA-6C1764DA5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$X$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$Y$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -154,15 +154,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント登録画面</t>
-  </si>
-  <si>
-    <t>登録確認画面</t>
-  </si>
-  <si>
-    <t>登録完了画面</t>
-  </si>
-  <si>
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -180,6 +171,158 @@
     <t>アカウント検索</t>
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録処理</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録画面←URLは任意のURL/regist.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力内容確認</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面←URLは任意のURL/regist_confirm.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面←URLは任意のURL/regist_complete.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面←URLは任意のURL/list.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント情報表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新内容確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新処理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除内容確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除処理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索結果表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>認証処理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページ表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限管理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>権限管理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新画面 ← URLは任意のURL/update.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面 ← URLは任意URL/update_confirm.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面 ← URLは任意URL/update_complete.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除画面 ← URLは任意のURL/delete.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面 ← URLは任意のURL/delete_confirm.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面 ← URLは任意のURL/delete_complete.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面にて検索機能を提供</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力された条件に基づき、アカウント情報を表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン画面 ← URLは任意のURL/login.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードの組み合わせを確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン成功後、TOPページへ遷移</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>権限に応じた画面項目の表示・非表示制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -450,7 +593,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2629,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2694,6 +2838,9 @@
         <v>1</v>
       </c>
       <c r="V2" s="48"/>
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:168" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="49" t="s">
@@ -2879,14 +3026,16 @@
       <c r="C4" s="8"/>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -2907,14 +3056,16 @@
       <c r="C5" s="8"/>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -2935,14 +3086,16 @@
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -2959,18 +3112,22 @@
     </row>
     <row r="7" spans="1:168" ht="12.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2986,17 +3143,23 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="52" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3012,19 +3175,20 @@
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -3044,13 +3208,17 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -3070,13 +3238,17 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -3096,13 +3268,17 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -3122,13 +3298,17 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -3144,17 +3324,23 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -3170,19 +3356,20 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -3198,17 +3385,23 @@
       <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -3228,13 +3421,17 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="12"/>
@@ -3254,13 +3451,17 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="8"/>
@@ -3275,17 +3476,23 @@
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>

--- a/基本設計/機能一覧表.xlsx
+++ b/基本設計/機能一覧表.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB06B45-6EDF-4127-9ADA-6C1764DA5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D9FD9-B1D8-45C1-A4D7-09F5BE4C2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
-    <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
+    <sheet name="機能一覧表" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$Y$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -118,10 +118,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PL</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能分類</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>システム名「D.Iブログ」</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アカウント登録</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -161,90 +153,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント操作</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
+    <t>アカウント更新</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>アカウント検索</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント登録</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>登録処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント登録画面←URLは任意のURL/regist.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入力内容確認</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント登録確認画面←URLは任意のURL/regist_confirm.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面←URLは任意のURL/regist_complete.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面←URLは任意のURL/list.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント情報表示</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント更新</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新内容確認</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新処理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント削除</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>削除内容確認</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>削除処理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント検索</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索結果表示</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -252,77 +169,227 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>認証処理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TOPページ表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント権限管理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>権限管理</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログイン機能</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント更新画面 ← URLは任意のURL/update.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント更新確認画面 ← URLは任意URL/update_confirm.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント更新完了画面 ← URLは任意URL/update_complete.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント削除画面 ← URLは任意のURL/delete.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面 ← URLは任意のURL/delete_confirm.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント削除完了画面 ← URLは任意のURL/delete_complete.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面にて検索機能を提供</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入力された条件に基づき、アカウント情報を表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログイン画面 ← URLは任意のURL/login.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メールアドレスとパスワードの組み合わせを確認</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログイン成功後、TOPページへ遷移</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>権限に応じた画面項目の表示・非表示制御</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サブシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録完了</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新規ユーザーのアカウントを登録する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録情報の確認画面を表示し、ユーザーが入力内容を確認できるようにする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録の完了を通知する画面を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録されているアカウントの一覧を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で、条件検索により特定のアカウントを検索できるようにする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新完了</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除完了</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザーがメールアドレスとパスワードでシステムにログインできるようにする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除の完了を通知する画面を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除内容の確認画面を表示し、ユーザーが削除の最終確認をできるようにす</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウントの削除を行うための画面を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新の完了を通知する画面を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新内容の確認画面を表示し、ユーザーが変更内容を確認できるようにする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>既存のアカウント情報を編集・更新する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>権限制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクセス制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能の表示制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページアクセス制限</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限（一般、管理者）に応じて、画面項目や機能の表示・操作を制御する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限に応じて、特定のページへのアクセスを許可または拒否する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>権限に応じて、ナビゲーションバーの「アカウント登録」「アカウント一覧」リンクの表示を制御する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーションバー制御</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードのハッシュ化</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードをハッシュ化してデータベースに保存し、セキュリティを強化する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各種入力項目に対するバリデーションを行い、不正なデータの登録を防止する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バリデーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニュー管理</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -443,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -541,21 +608,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -593,7 +645,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,15 +690,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,16 +725,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +752,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -839,13 +907,16 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2024/9/28</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
@@ -1166,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:Q10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -1574,26 +1645,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1612,22 +1683,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1842,18 +1913,18 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="AA17" s="4"/>
@@ -1875,16 +1946,16 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="AA18" s="4"/>
@@ -1906,16 +1977,16 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2130,26 +2201,29 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="10"/>
-      <c r="AC25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD25" s="10" t="s">
+      <c r="AC25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="22"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="22"/>
     </row>
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="39">
+        <v>45563</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2168,10 +2242,11 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="10"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="22"/>
+      <c r="AC26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="22"/>
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="20"/>
@@ -2202,10 +2277,9 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="22"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="22"/>
     </row>
     <row r="28" spans="1:32" ht="13.05" customHeight="1">
       <c r="A28" s="20"/>
@@ -2236,10 +2310,9 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="10"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="22"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="22"/>
     </row>
     <row r="29" spans="1:32" ht="13.05" customHeight="1">
       <c r="A29" s="20"/>
@@ -2270,10 +2343,9 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="10"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="22"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="22"/>
     </row>
     <row r="30" spans="1:32" ht="13.05" customHeight="1">
       <c r="A30" s="20"/>
@@ -2304,10 +2376,9 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="10"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="22"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="22"/>
     </row>
     <row r="31" spans="1:32" ht="13.05" customHeight="1">
       <c r="A31" s="20"/>
@@ -2338,10 +2409,9 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="10"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="22"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="22"/>
     </row>
     <row r="32" spans="1:32" ht="13.05" customHeight="1">
       <c r="A32" s="20"/>
@@ -2372,10 +2442,9 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="10"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="22"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="22"/>
     </row>
     <row r="33" spans="1:32" ht="13.05" customHeight="1">
       <c r="A33" s="20"/>
@@ -2406,10 +2475,9 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="22"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="22"/>
     </row>
     <row r="34" spans="1:32" ht="13.05" customHeight="1">
       <c r="A34" s="20"/>
@@ -2440,10 +2508,9 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="10"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="22"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="22"/>
     </row>
     <row r="35" spans="1:32" ht="13.05" customHeight="1">
       <c r="A35" s="20"/>
@@ -2474,10 +2541,9 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="22"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="22"/>
     </row>
     <row r="36" spans="1:32" ht="13.05" customHeight="1">
       <c r="A36" s="20"/>
@@ -2508,10 +2574,9 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="10"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="22"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="22"/>
     </row>
     <row r="37" spans="1:32" ht="13.05" customHeight="1">
       <c r="A37" s="20"/>
@@ -2542,10 +2607,9 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="10"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="22"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="22"/>
     </row>
     <row r="38" spans="1:32" ht="13.05" customHeight="1">
       <c r="A38" s="20"/>
@@ -2576,10 +2640,9 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="10"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="22"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="22"/>
     </row>
     <row r="39" spans="1:32" ht="13.05" customHeight="1">
       <c r="A39" s="20"/>
@@ -2610,10 +2673,9 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="22"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="22"/>
     </row>
     <row r="40" spans="1:32" ht="13.05" customHeight="1">
       <c r="A40" s="20"/>
@@ -2644,10 +2706,9 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="10"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="22"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="22"/>
     </row>
     <row r="41" spans="1:32" ht="13.05" customHeight="1">
       <c r="A41" s="20"/>
@@ -2678,10 +2739,9 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="22"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="1:32" ht="13.05" customHeight="1">
       <c r="A42" s="20"/>
@@ -2712,44 +2772,43 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="10"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="22"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="1:32" ht="13.05" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="28"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2770,55 +2829,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:FL41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48337C7-87BC-4A75-B56B-8D694614B7DA}">
+  <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView view="pageBreakPreview" zoomScale="76" zoomScaleNormal="75" zoomScaleSheetLayoutView="76" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="13" customWidth="1"/>
-    <col min="2" max="24" width="4.109375" style="1" customWidth="1"/>
-    <col min="25" max="28" width="4" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="13" customWidth="1"/>
+    <col min="7" max="15" width="4.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="42.6640625" style="1" customWidth="1"/>
+    <col min="17" max="29" width="4.109375" style="1" customWidth="1"/>
+    <col min="30" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-    </row>
-    <row r="2" spans="1:168" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+    <row r="1" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+    </row>
+    <row r="2" spans="1:173" ht="14.25" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2833,244 +2903,262 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="47" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:168" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="49" t="s">
+      <c r="AC2" s="50"/>
+    </row>
+    <row r="3" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="52"/>
+    </row>
+    <row r="4" spans="1:173" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="49" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
-      <c r="DG3" s="5"/>
-      <c r="DH3" s="5"/>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
-      <c r="DL3" s="5"/>
-      <c r="DM3" s="5"/>
-      <c r="DN3" s="5"/>
-      <c r="DO3" s="5"/>
-      <c r="DP3" s="5"/>
-      <c r="DQ3" s="5"/>
-      <c r="DR3" s="5"/>
-      <c r="DS3" s="5"/>
-      <c r="DT3" s="5"/>
-      <c r="DU3" s="5"/>
-      <c r="DV3" s="5"/>
-      <c r="DW3" s="5"/>
-      <c r="DX3" s="5"/>
-      <c r="DY3" s="5"/>
-      <c r="DZ3" s="5"/>
-      <c r="EA3" s="5"/>
-      <c r="EB3" s="5"/>
-      <c r="EC3" s="5"/>
-      <c r="ED3" s="5"/>
-      <c r="EE3" s="5"/>
-      <c r="EF3" s="5"/>
-      <c r="EG3" s="5"/>
-      <c r="EH3" s="5"/>
-      <c r="EI3" s="5"/>
-      <c r="EJ3" s="5"/>
-      <c r="EK3" s="5"/>
-      <c r="EL3" s="5"/>
-      <c r="EM3" s="5"/>
-      <c r="EN3" s="5"/>
-      <c r="EO3" s="5"/>
-      <c r="EP3" s="5"/>
-      <c r="EQ3" s="5"/>
-      <c r="ER3" s="5"/>
-      <c r="ES3" s="5"/>
-      <c r="ET3" s="5"/>
-      <c r="EU3" s="5"/>
-      <c r="EV3" s="5"/>
-      <c r="EW3" s="5"/>
-      <c r="EX3" s="5"/>
-      <c r="EY3" s="5"/>
-      <c r="EZ3" s="5"/>
-      <c r="FA3" s="5"/>
-      <c r="FB3" s="5"/>
-      <c r="FC3" s="5"/>
-      <c r="FD3" s="5"/>
-      <c r="FE3" s="5"/>
-      <c r="FF3" s="5"/>
-      <c r="FG3" s="5"/>
-      <c r="FH3" s="5"/>
-      <c r="FI3" s="5"/>
-      <c r="FJ3" s="5"/>
-      <c r="FK3" s="5"/>
-      <c r="FL3" s="5"/>
-    </row>
-    <row r="4" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+      <c r="DQ4" s="5"/>
+      <c r="DR4" s="5"/>
+      <c r="DS4" s="5"/>
+      <c r="DT4" s="5"/>
+      <c r="DU4" s="5"/>
+      <c r="DV4" s="5"/>
+      <c r="DW4" s="5"/>
+      <c r="DX4" s="5"/>
+      <c r="DY4" s="5"/>
+      <c r="DZ4" s="5"/>
+      <c r="EA4" s="5"/>
+      <c r="EB4" s="5"/>
+      <c r="EC4" s="5"/>
+      <c r="ED4" s="5"/>
+      <c r="EE4" s="5"/>
+      <c r="EF4" s="5"/>
+      <c r="EG4" s="5"/>
+      <c r="EH4" s="5"/>
+      <c r="EI4" s="5"/>
+      <c r="EJ4" s="5"/>
+      <c r="EK4" s="5"/>
+      <c r="EL4" s="5"/>
+      <c r="EM4" s="5"/>
+      <c r="EN4" s="5"/>
+      <c r="EO4" s="5"/>
+      <c r="EP4" s="5"/>
+      <c r="EQ4" s="5"/>
+      <c r="ER4" s="5"/>
+      <c r="ES4" s="5"/>
+      <c r="ET4" s="5"/>
+      <c r="EU4" s="5"/>
+      <c r="EV4" s="5"/>
+      <c r="EW4" s="5"/>
+      <c r="EX4" s="5"/>
+      <c r="EY4" s="5"/>
+      <c r="EZ4" s="5"/>
+      <c r="FA4" s="5"/>
+      <c r="FB4" s="5"/>
+      <c r="FC4" s="5"/>
+      <c r="FD4" s="5"/>
+      <c r="FE4" s="5"/>
+      <c r="FF4" s="5"/>
+      <c r="FG4" s="5"/>
+      <c r="FH4" s="5"/>
+      <c r="FI4" s="5"/>
+      <c r="FJ4" s="5"/>
+      <c r="FK4" s="5"/>
+      <c r="FL4" s="5"/>
+      <c r="FM4" s="5"/>
+      <c r="FN4" s="5"/>
+      <c r="FO4" s="5"/>
+      <c r="FP4" s="5"/>
+      <c r="FQ4" s="5"/>
+    </row>
+    <row r="5" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -3078,29 +3166,36 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="10"/>
+    </row>
+    <row r="6" spans="1:173" ht="12.6" customHeight="1">
+      <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -3108,31 +3203,36 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="10"/>
+    </row>
+    <row r="7" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -3140,150 +3240,184 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="10"/>
+    </row>
+    <row r="8" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="1:168" ht="12.75" customHeight="1">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="10"/>
+    </row>
+    <row r="9" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A10" s="9"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="10"/>
+    </row>
+    <row r="10" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A11" s="9"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="10"/>
+    </row>
+    <row r="11" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A12" s="9"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="10"/>
+    </row>
+    <row r="12" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -3291,29 +3425,36 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="1:168" ht="12.75" customHeight="1">
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:173" ht="12.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -3321,60 +3462,73 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="1:168" ht="12.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:168" ht="12.75" customHeight="1">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="15" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -3382,31 +3536,38 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:168" ht="12.75" customHeight="1">
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="1:173" ht="12.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -3414,29 +3575,38 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A17" s="7"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -3444,86 +3614,114 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="S18" s="12"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="10"/>
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A20" s="7"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="10"/>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -3531,25 +3729,36 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="10"/>
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -3557,233 +3766,278 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="10"/>
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="10"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="10"/>
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="10"/>
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="10"/>
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="10"/>
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="10"/>
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -3791,25 +4045,30 @@
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="10"/>
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -3817,25 +4076,30 @@
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="10"/>
-    </row>
-    <row r="32" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="10"/>
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -3843,25 +4107,30 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="10"/>
-    </row>
-    <row r="33" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="10"/>
+    </row>
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -3869,25 +4138,30 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="10"/>
+    </row>
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -3895,25 +4169,30 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="10"/>
-    </row>
-    <row r="35" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="10"/>
+    </row>
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -3921,25 +4200,30 @@
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="10"/>
+    </row>
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -3947,25 +4231,30 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="10"/>
+    </row>
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="7"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -3973,25 +4262,30 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
-      <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="10"/>
+    </row>
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -3999,25 +4293,30 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="10"/>
+    </row>
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -4025,25 +4324,30 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="10"/>
-    </row>
-    <row r="40" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="10"/>
+    </row>
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -4051,25 +4355,30 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="10"/>
-    </row>
-    <row r="41" spans="1:24" ht="12.75" customHeight="1">
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="10"/>
+    </row>
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -4077,20 +4386,58 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
-      <c r="X41" s="10"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="10"/>
+    </row>
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:X3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="P4:AC4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
